--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\SCADA_OTHER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\INDI_23-24_Automation_of_a_Production_Line\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFCF000-4DEB-463D-811D-60C29D5A2019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA720D7D-BBD2-4097-8FD5-09FD8BE465CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E7531F86-CD14-469F-BE46-90E0953B7E75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E7531F86-CD14-469F-BE46-90E0953B7E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Discrete Inputs" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="224">
   <si>
     <t>Channel</t>
   </si>
@@ -589,9 +594,6 @@
     <t>3:0026</t>
   </si>
   <si>
-    <t>op_machine1_mode</t>
-  </si>
-  <si>
     <t>mach1</t>
   </si>
   <si>
@@ -601,21 +603,12 @@
     <t>mach2</t>
   </si>
   <si>
-    <t>manual_machine1</t>
-  </si>
-  <si>
     <t>3:0028</t>
   </si>
   <si>
-    <t>manual_machine2</t>
-  </si>
-  <si>
     <t>3:0029</t>
   </si>
   <si>
-    <t>op_machine2_mode</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -650,13 +643,79 @@
   </si>
   <si>
     <t>4:0005</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>desired_tool_mach1</t>
+  </si>
+  <si>
+    <t>op_mode_mach2</t>
+  </si>
+  <si>
+    <t>manual_cm_mach2</t>
+  </si>
+  <si>
+    <t>op_mode_mach1</t>
+  </si>
+  <si>
+    <t>manual_cm_mach1</t>
+  </si>
+  <si>
+    <t>desired_tool_mach2</t>
+  </si>
+  <si>
+    <t>3:0030</t>
+  </si>
+  <si>
+    <t>3:0031</t>
+  </si>
+  <si>
+    <t>tool_enabled_mach1</t>
+  </si>
+  <si>
+    <t>tool_enabled_mach2</t>
+  </si>
+  <si>
+    <t>4:0006</t>
+  </si>
+  <si>
+    <t>4:0007</t>
+  </si>
+  <si>
+    <t>mach1_tool</t>
+  </si>
+  <si>
+    <t>mach2_tool</t>
+  </si>
+  <si>
+    <t>2:0039</t>
+  </si>
+  <si>
+    <t>2:0040</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,34 +1094,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D1D498-0DE3-4D8E-929D-9211CC6CDF96}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" activeCellId="1" sqref="B2:P2 B42:P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1085,7 +1144,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1138,7 +1197,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1</v>
@@ -1191,7 +1250,7 @@
       </c>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>1</v>
@@ -1244,7 +1303,7 @@
       </c>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>1</v>
@@ -1297,7 +1356,7 @@
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>1</v>
@@ -1350,7 +1409,7 @@
       </c>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>1</v>
@@ -1403,7 +1462,7 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>1</v>
@@ -1456,7 +1515,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>1</v>
@@ -1509,7 +1568,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>1</v>
@@ -1562,7 +1621,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>1</v>
@@ -1615,7 +1674,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>1</v>
@@ -1668,7 +1727,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>1</v>
@@ -1721,7 +1780,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1</v>
@@ -1774,7 +1833,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1</v>
@@ -1827,7 +1886,7 @@
       </c>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>1</v>
@@ -1880,7 +1939,7 @@
       </c>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>1</v>
@@ -1933,7 +1992,7 @@
       </c>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>1</v>
@@ -1986,7 +2045,7 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>1</v>
@@ -2039,7 +2098,7 @@
       </c>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>1</v>
@@ -2092,7 +2151,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>1</v>
@@ -2145,7 +2204,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>1</v>
@@ -2198,7 +2257,7 @@
       </c>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>1</v>
@@ -2251,7 +2310,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>1</v>
@@ -2304,7 +2363,7 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>1</v>
@@ -2357,7 +2416,7 @@
       </c>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>1</v>
@@ -2410,7 +2469,7 @@
       </c>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>1</v>
@@ -2463,7 +2522,7 @@
       </c>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>1</v>
@@ -2516,7 +2575,7 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>1</v>
@@ -2569,7 +2628,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>1</v>
@@ -2622,7 +2681,7 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>1</v>
@@ -2675,7 +2734,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>1</v>
@@ -2728,7 +2787,7 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>1</v>
@@ -2781,7 +2840,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>1</v>
@@ -2834,7 +2893,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>1</v>
@@ -2887,7 +2946,7 @@
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>1</v>
@@ -2940,7 +2999,7 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>1</v>
@@ -2993,7 +3052,7 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>1</v>
@@ -3046,7 +3105,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>1</v>
@@ -3099,7 +3158,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>1</v>
@@ -3152,7 +3211,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41">
         <v>1</v>
@@ -3205,28 +3264,87 @@
       </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3236,50 +3354,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE25F351-A1F9-4C05-A232-8ADB34DE3270}">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:AL39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="9" max="9" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3320,7 +3438,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3427,7 +3545,7 @@
       </c>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3501,10 +3619,10 @@
       </c>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B33" si="0">CONCATENATE("Application.MAIN_SM.",H4)</f>
+        <f t="shared" ref="B4:B43" si="0">CONCATENATE("Application.MAIN_SM.",H4)</f>
         <v>Application.MAIN_SM.op_mode_conv1</v>
       </c>
       <c r="C4" s="1"/>
@@ -3584,7 +3702,7 @@
       </c>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -3592,7 +3710,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D33" si="1">CONCATENATE(H5," : WORD;")</f>
+        <f t="shared" ref="D5:D43" si="1">CONCATENATE(H5," : WORD;")</f>
         <v>manual_cm_conv1 : WORD;</v>
       </c>
       <c r="E5" s="1"/>
@@ -3667,7 +3785,7 @@
       </c>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -3750,7 +3868,7 @@
       </c>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -3833,7 +3951,7 @@
       </c>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -3916,7 +4034,7 @@
       </c>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -3999,7 +4117,7 @@
       </c>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -4082,7 +4200,7 @@
       </c>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -4165,7 +4283,7 @@
       </c>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -4248,7 +4366,7 @@
       </c>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -4331,7 +4449,7 @@
       </c>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -4414,7 +4532,7 @@
       </c>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -4497,7 +4615,7 @@
       </c>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -4580,7 +4698,7 @@
       </c>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -4663,7 +4781,7 @@
       </c>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -4746,7 +4864,7 @@
       </c>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -4829,7 +4947,7 @@
       </c>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -4912,7 +5030,7 @@
       </c>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -4995,7 +5113,7 @@
       </c>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -5078,7 +5196,7 @@
       </c>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -5161,7 +5279,7 @@
       </c>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -5244,7 +5362,7 @@
       </c>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -5327,7 +5445,7 @@
       </c>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -5410,7 +5528,7 @@
       </c>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -5493,7 +5611,7 @@
       </c>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -5576,7 +5694,7 @@
       </c>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -5659,16 +5777,16 @@
       </c>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.op_machine1_mode</v>
+        <v>Application.MAIN_SM.op_mode_mach1</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
-        <v>op_machine1_mode : WORD;</v>
+        <v>op_mode_mach1 : WORD;</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30">
@@ -5678,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="I30">
         <v>26</v>
@@ -5687,7 +5805,7 @@
         <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s">
         <v>107</v>
@@ -5742,16 +5860,16 @@
       </c>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.manual_machine1</v>
+        <v>Application.MAIN_SM.manual_cm_mach1</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
-        <v>manual_machine1 : WORD;</v>
+        <v>manual_cm_mach1 : WORD;</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31">
@@ -5761,16 +5879,16 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="I31">
         <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s">
         <v>107</v>
@@ -5779,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5824,16 +5942,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.op_machine2_mode</v>
+        <v>Application.MAIN_SM.desired_tool_mach1</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
-        <v>op_machine2_mode : WORD;</v>
+        <v>desired_tool_mach1 : WORD;</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32">
@@ -5843,16 +5961,16 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="I32">
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s">
         <v>107</v>
@@ -5906,16 +6024,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.manual_machine2</v>
+        <v>Application.MAIN_SM.op_mode_mach2</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>manual_machine2 : WORD;</v>
+        <v>op_mode_mach2 : WORD;</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33">
@@ -5925,28 +6043,28 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="I33">
         <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s">
         <v>107</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -5988,16 +6106,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B39" si="2">CONCATENATE("Application.MAIN_SM.",H34)</f>
-        <v>Application.MAIN_SM.Year</v>
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.manual_cm_mach2</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D39" si="3">CONCATENATE(H34," : WORD;")</f>
-        <v>Year : WORD;</v>
+        <f t="shared" si="1"/>
+        <v>manual_cm_mach2 : WORD;</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34">
@@ -6007,16 +6125,16 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I34">
         <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s">
         <v>107</v>
@@ -6025,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -6070,16 +6188,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
-        <v>Application.MAIN_SM.Month</v>
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.desired_tool_mach2</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="str">
-        <f t="shared" si="3"/>
-        <v>Month : WORD;</v>
+        <f t="shared" si="1"/>
+        <v>desired_tool_mach2 : WORD;</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35">
@@ -6089,28 +6207,28 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="I35">
         <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="K35" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s">
         <v>107</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -6152,16 +6270,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
-        <v>Application.MAIN_SM.Day</v>
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.year</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" t="str">
-        <f t="shared" si="3"/>
-        <v>Day : WORD;</v>
+        <f t="shared" si="1"/>
+        <v>year : WORD;</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36">
@@ -6171,16 +6289,16 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I36">
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M36" t="s">
         <v>107</v>
@@ -6189,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -6234,16 +6352,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
-        <v>Application.MAIN_SM.Hour</v>
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.month</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="str">
-        <f t="shared" si="3"/>
-        <v>Hour : WORD;</v>
+        <f t="shared" si="1"/>
+        <v>month : WORD;</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37">
@@ -6253,28 +6371,28 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I37">
         <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s">
         <v>107</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -6316,16 +6434,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
-        <v>Application.MAIN_SM.Minute</v>
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.day</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="str">
-        <f t="shared" si="3"/>
-        <v>Minute : WORD;</v>
+        <f t="shared" si="1"/>
+        <v>day : WORD;</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38">
@@ -6335,28 +6453,28 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I38">
         <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s">
         <v>107</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -6398,16 +6516,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
-        <v>Application.MAIN_SM.Second</v>
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.hour</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" t="str">
-        <f t="shared" si="3"/>
-        <v>Second : WORD;</v>
+        <f t="shared" si="1"/>
+        <v>hour : WORD;</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39">
@@ -6417,16 +6535,16 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I39">
         <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M39" t="s">
         <v>107</v>
@@ -6435,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -6477,6 +6595,334 @@
         <v>17</v>
       </c>
       <c r="AI39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.minute</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>minute : WORD;</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" t="s">
+        <v>107</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>60</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.second</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>second : WORD;</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" t="s">
+        <v>195</v>
+      </c>
+      <c r="M41" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>60</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.tool_enabled_mach1</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>tool_enabled_mach1 : WORD;</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" t="s">
+        <v>185</v>
+      </c>
+      <c r="M42" t="s">
+        <v>107</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.tool_enabled_mach2</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>tool_enabled_mach2 : WORD;</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
+        <v>219</v>
+      </c>
+      <c r="K43" t="s">
+        <v>187</v>
+      </c>
+      <c r="M43" t="s">
+        <v>107</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI43" t="s">
         <v>17</v>
       </c>
     </row>
